--- a/All_Node_Information_EQNX.xlsx
+++ b/All_Node_Information_EQNX.xlsx
@@ -508,67 +508,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.7427884725</t>
+          <t>9.584620849999995</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.2419110675</t>
+          <t>9.332041105000005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.945850455</t>
+          <t>9.830348894999997</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11.383662762499998</t>
+          <t>12.51443474999999</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.725070649999997</t>
+          <t>15.867820049999986</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16.5618013</t>
+          <t>17.08867847499999</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14.808338000000001</t>
+          <t>16.405220200000002</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7.4151470425</t>
+          <t>8.300983232499998</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12.186182225000001</t>
+          <t>14.051409925000002</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.565471025000003</t>
+          <t>15.934089375000005</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>15.475093999999999</t>
+          <t>15.08634327499999</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11.474527509999998</t>
+          <t>12.025321149999996</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7.7853554800000015</t>
+          <t>9.605015812500007</t>
         </is>
       </c>
     </row>
@@ -580,67 +580,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.78856056923077</t>
+          <t>6.088180499999999</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7.499947476923077</t>
+          <t>6.7058554</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.338098084615385</t>
+          <t>8.5202513</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.119227846153846</t>
+          <t>9.6181498</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.096898346153846</t>
+          <t>9.340824100000003</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.641783246153846</t>
+          <t>9.8676224</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.669818169230769</t>
+          <t>7.966906100000002</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4.592479030769231</t>
+          <t>4.657543699999999</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.9823906923076917</t>
+          <t>3.3092248000000004</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.7281198466153844</t>
+          <t>2.7989948</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.8995790753846153</t>
+          <t>2.7833469000000006</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4.391850792307693</t>
+          <t>4.400309999999999</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>6.867617761538461</t>
+          <t>6.143347699999999</t>
         </is>
       </c>
     </row>
@@ -652,67 +652,67 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.2285308432258064</t>
+          <t>0.2734850674193549</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.9461678000000004</t>
+          <t>2.8384696645161287</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.634215061290325</t>
+          <t>8.727137951612901</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13.73471552580645</t>
+          <t>9.308583512903226</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.034789841935481</t>
+          <t>11.61653508064516</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14.785607693548384</t>
+          <t>12.680849232258062</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7.992116996774193</t>
+          <t>6.205795041935485</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.07250307822580651</t>
+          <t>-1.044205680967742</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-0.8344871880645163</t>
+          <t>-1.329522342580645</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-3.0820663838709677</t>
+          <t>-3.0603134064516127</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-3.6063835129032262</t>
+          <t>-3.538150303225805</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-1.2282028496451611</t>
+          <t>-1.4552896122580643</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1.317398583935484</t>
+          <t>0.34025242580645154</t>
         </is>
       </c>
     </row>
@@ -724,67 +724,67 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-7.87698055664805</t>
+          <t>-9.062331450223542</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-7.7862806069273764</t>
+          <t>-8.985082401508333</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-7.882114486759775</t>
+          <t>-8.876840481396735</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.29243059653632</t>
+          <t>-9.201888987653357</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-8.964412503407829</t>
+          <t>-8.323994521061506</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-9.094323310167596</t>
+          <t>-8.692420545753924</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-9.106806640837997</t>
+          <t>-9.2172026173185</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-8.473986447709494</t>
+          <t>-9.747519734078537</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-7.676020794357546</t>
+          <t>-8.39032584597793</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-8.977945284078208</t>
+          <t>-8.350587471955642</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-9.717908374916195</t>
+          <t>-8.81860580039096</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-9.128945165698326</t>
+          <t>-9.562267002960805</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-7.83353065793295</t>
+          <t>-9.03942042737446</t>
         </is>
       </c>
     </row>
@@ -796,67 +796,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-6.582417007904942</t>
+          <t>-16.42426790504302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-6.328992704946657</t>
+          <t>-15.88605770906812</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-5.999912740349173</t>
+          <t>-14.855632154704793</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.82829567895248</t>
+          <t>-14.073244564160587</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-8.5486991742968</t>
+          <t>-14.874650867895165</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-8.356771399321058</t>
+          <t>-15.250089852182887</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-7.905492154267691</t>
+          <t>-15.575565724732755</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-5.339352817064013</t>
+          <t>-15.124889242773838</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-4.97443267080503</t>
+          <t>-12.313474038700148</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-7.046042101163911</t>
+          <t>-13.57766443336582</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-8.296194954752664</t>
+          <t>-15.460657474878971</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-7.562960634093111</t>
+          <t>-16.22735986964069</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-6.439203200921425</t>
+          <t>-16.33613107386028</t>
         </is>
       </c>
     </row>
@@ -868,67 +868,67 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14.674562106832305</t>
+          <t>12.319992962732924</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.707594063354037</t>
+          <t>12.101835428571441</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.966668519875782</t>
+          <t>11.324318987577662</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.21944394658385</t>
+          <t>5.196574585714276</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.3620363638664597</t>
+          <t>-1.1269213591304306</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.531476626801242</t>
+          <t>-1.1516166238509313</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-0.21379159542236023</t>
+          <t>-1.9707644919254683</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-1.0702336730124218</t>
+          <t>-3.2515056403726654</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.19819180395031075</t>
+          <t>-1.5165137719254642</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.3284829508074532</t>
+          <t>-0.9024698000000017</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2.9483351049006212</t>
+          <t>1.7981618183229826</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10.564666883229814</t>
+          <t>9.03852329068323</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>14.754343755900626</t>
+          <t>12.376452341614934</t>
         </is>
       </c>
     </row>
@@ -940,67 +940,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12.837930538461539</t>
+          <t>11.349045</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12.15906153846154</t>
+          <t>10.721169000000002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.248112646153848</t>
+          <t>10.063255999999999</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.769030561538464</t>
+          <t>8.410975500000003</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.9128939538461545</t>
+          <t>5.5879068</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.5847434855384623</t>
+          <t>4.673147200000001</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.5019568830769225</t>
+          <t>4.7704959</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.4199159052307686</t>
+          <t>4.4521236</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6.394461646153847</t>
+          <t>7.203989000000003</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10.4954585</t>
+          <t>11.114755</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11.243487253846155</t>
+          <t>11.277569999999999</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12.899929923076922</t>
+          <t>11.793497</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>12.932471307692307</t>
+          <t>11.423196</t>
         </is>
       </c>
     </row>
@@ -1012,67 +1012,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.256493296703909</t>
+          <t>4.725734590502786</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.02264660178771</t>
+          <t>4.562158291620117</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.252534265642459</t>
+          <t>4.706076369832401</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.558858609888267</t>
+          <t>5.67384258826815</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.394655684357542</t>
+          <t>7.986364448603326</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.607243113966485</t>
+          <t>10.2312350223464</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10.490358881005589</t>
+          <t>10.5858685921788</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.5651257315160393</t>
+          <t>0.19465156027932967</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8.706485982681565</t>
+          <t>8.813664409497216</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>8.753739124581005</t>
+          <t>8.506543371508393</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7.668421911731844</t>
+          <t>7.104930122346377</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>5.864931547709497</t>
+          <t>5.661127539664818</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.2785096973743</t>
+          <t>4.738267861452506</t>
         </is>
       </c>
     </row>
@@ -1084,67 +1084,67 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.713042259999998</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.5761732</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>10.302504399999998</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.128558600000002</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>17.8642835</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>18.303541399999997</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>17.0607102</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.215894700000002</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>12.889048399999998</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.652106499999999</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.684618000000004</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.779827999999998</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.735832199999999</t>
         </is>
       </c>
     </row>
@@ -1156,67 +1156,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8.43019722672414</t>
+          <t>7.573452500000005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8.121855749999998</t>
+          <t>7.318418999999983</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.674508912068963</t>
+          <t>6.966881299999988</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.541558735344828</t>
+          <t>5.957358799999992</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.799646955172411</t>
+          <t>7.317109100000011</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5.903665694827587</t>
+          <t>5.519578000000013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7.412169273275858</t>
+          <t>6.735680099999996</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14.180906681034482</t>
+          <t>13.366743999999986</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>16.510058948275855</t>
+          <t>15.826148999999988</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>15.054556448275862</t>
+          <t>14.38576800000003</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>12.959192922413797</t>
+          <t>12.310566000000028</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10.120482443965514</t>
+          <t>9.467594100000017</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>8.45986733534483</t>
+          <t>7.6048445999999865</t>
         </is>
       </c>
     </row>
@@ -1228,67 +1228,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.824981169999997</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.3822418</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.7154659</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.133453800000002</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.6246768</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.593521</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.580668000000003</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.162646300000002</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.0130762</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>18.616764099999994</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>17.848069000000002</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.3738752</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.848416429999999</t>
         </is>
       </c>
     </row>
@@ -1300,67 +1300,67 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-7.541218388724377</t>
+          <t>-8.794419080865431</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-7.4460718787585405</t>
+          <t>-8.71825197312066</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-7.534441351594523</t>
+          <t>-8.614140682061599</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-8.934244013610483</t>
+          <t>-8.956092429043421</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-8.609925838382674</t>
+          <t>-8.067148846412408</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-8.774195240148055</t>
+          <t>-8.42060223342832</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-8.782397319760818</t>
+          <t>-8.956935299829382</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-8.011915630694753</t>
+          <t>-9.422206725911128</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-7.33509546440775</t>
+          <t>-8.126082893678895</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-8.630939301480634</t>
+          <t>-8.080408995444047</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-9.349022565945331</t>
+          <t>-8.541242976366762</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-8.7920273058656</t>
+          <t>-9.271339506378302</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-7.497446246298402</t>
+          <t>-8.77138485193631</t>
         </is>
       </c>
     </row>
@@ -1372,67 +1372,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.846689243478262</t>
+          <t>2.7955723000000017</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.9814805260869575</t>
+          <t>2.8798293999999993</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.0734486739130435</t>
+          <t>2.9876405999999998</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.916817978260871</t>
+          <t>2.2758489</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.7950093086956525</t>
+          <t>1.958785399999999</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.717384347826087</t>
+          <t>2.0773401000000002</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.286819597826087</t>
+          <t>1.5008176999999996</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.6599900230434788</t>
+          <t>0.17973441</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.32956912</t>
+          <t>1.1638184</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.9347159747826086</t>
+          <t>1.4829402000000007</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2.3912490552173917</t>
+          <t>1.6791399999999996</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3.4920584869565214</t>
+          <t>2.1075202999999996</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>4.904718730434781</t>
+          <t>2.8285987</t>
         </is>
       </c>
     </row>
@@ -1444,67 +1444,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10.7900515670391</t>
+          <t>8.700784037430191</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10.774207981005588</t>
+          <t>8.43194883631285</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.818003774860335</t>
+          <t>8.640941003351951</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10.812043864245807</t>
+          <t>9.850279857541905</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11.651713710055871</t>
+          <t>12.209405435754196</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13.07824760335196</t>
+          <t>14.219008631284932</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>13.849362223463691</t>
+          <t>14.549468765363127</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.88376947932961</t>
+          <t>4.89529946759775</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13.471179262569834</t>
+          <t>12.979651061452516</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12.566464993296085</t>
+          <t>13.208493480446915</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>11.401560521787706</t>
+          <t>11.841344843575447</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10.869295180446931</t>
+          <t>10.015880741899437</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>10.790399527932962</t>
+          <t>8.719889434078178</t>
         </is>
       </c>
     </row>
@@ -1516,67 +1516,67 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12.978594461538462</t>
+          <t>11.401014000000002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12.296067307692308</t>
+          <t>10.771513</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.372072107692308</t>
+          <t>10.110153999999998</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.839791892307693</t>
+          <t>8.452014000000002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.9227945</t>
+          <t>5.6222215</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.561248769692307</t>
+          <t>4.695293399999999</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.473087875384615</t>
+          <t>4.786303000000002</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3.329829799846154</t>
+          <t>4.402895899999999</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>6.351532</t>
+          <t>7.1968732</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>10.52726013846154</t>
+          <t>11.166665999999996</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>11.321257184615385</t>
+          <t>11.344536000000003</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13.021320230769229</t>
+          <t>11.84751</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>13.072212384615385</t>
+          <t>11.474135999999998</t>
         </is>
       </c>
     </row>
@@ -1588,67 +1588,67 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.892438089999999</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.442798979999997</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.77669277</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.1955343</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.6907542</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.657639</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.646600000000001</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.051815020000001</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.084065900000002</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>18.6999436</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>17.9216356</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.4550019</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.916135199999998</t>
         </is>
       </c>
     </row>
@@ -1660,67 +1660,67 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13.379054</t>
+          <t>11.191399</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12.790428076923076</t>
+          <t>10.594911999999997</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11.888977076923076</t>
+          <t>9.877379399999999</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>9.32225060769231</t>
+          <t>8.014149700000003</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.738024646153847</t>
+          <t>5.696531800000002</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.400101233846154</t>
+          <t>4.924184300000001</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4.299160520769231</t>
+          <t>4.892060800000001</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.9120806992307684</t>
+          <t>4.079205000000001</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.692766284615384</t>
+          <t>6.704122499999998</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10.502486000000001</t>
+          <t>10.710809000000001</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>11.474674861538462</t>
+          <t>11.191297000000002</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12.948057615384615</t>
+          <t>11.392641999999997</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>13.45197846153846</t>
+          <t>11.243399</t>
         </is>
       </c>
     </row>
@@ -1732,67 +1732,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5.154673615384615</t>
+          <t>4.9080829999999995</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.939681346153846</t>
+          <t>5.5976553</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.999114484615386</t>
+          <t>7.614337899999999</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.445028776923078</t>
+          <t>9.342844</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.831307846153847</t>
+          <t>8.317755699999996</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8.229378230769232</t>
+          <t>8.8081856</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>6.167796992307694</t>
+          <t>7.020635099999999</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.3182030538461538</t>
+          <t>4.174762200000002</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.5744498169230772</t>
+          <t>2.6164463</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.28386809076923086</t>
+          <t>1.9416842000000007</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.13057339084615383</t>
+          <t>1.5833987</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2.7108035615384614</t>
+          <t>3.1021872000000004</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5.263765453846154</t>
+          <t>4.9908614</t>
         </is>
       </c>
     </row>
@@ -1804,67 +1804,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5.055373524137931</t>
+          <t>7.760293751724141</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5.540656555172413</t>
+          <t>7.704655296551724</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.865750106896552</t>
+          <t>10.074708106896555</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17.316106793103447</t>
+          <t>22.06121189655173</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>25.914067758620682</t>
+          <t>24.902722068965524</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23.397041896551716</t>
+          <t>22.733012241379313</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16.74713751724138</t>
+          <t>17.54166472413793</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6.2219981275862075</t>
+          <t>7.588433634482758</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>8.210084096551727</t>
+          <t>11.063015862068964</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10.33566343448276</t>
+          <t>12.571998517241372</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10.410372231034483</t>
+          <t>11.647421689655168</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7.926706706896552</t>
+          <t>9.580610717241383</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>5.105990375862069</t>
+          <t>7.783788386206898</t>
         </is>
       </c>
     </row>
@@ -1876,67 +1876,67 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.0116103280645163</t>
+          <t>0.09399281470967741</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.9267907806451614</t>
+          <t>2.841675412903226</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.967887409677418</t>
+          <t>9.018592125806451</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14.24887428064516</t>
+          <t>9.589621425806454</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14.69914791612903</t>
+          <t>12.221839554838715</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15.416222322580643</t>
+          <t>13.295738548387098</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8.191197254838709</t>
+          <t>6.81055927096774</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-0.06415749941935485</t>
+          <t>-1.2549788219354838</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-0.9701618470000001</t>
+          <t>-0.9850300167096776</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-3.280763032580645</t>
+          <t>-3.222459709677419</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-3.840963622580645</t>
+          <t>-3.737858967741938</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-1.465937341064516</t>
+          <t>-1.6455788909677422</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1.0997411019354841</t>
+          <t>0.15965877754838712</t>
         </is>
       </c>
     </row>
@@ -1948,67 +1948,67 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13.088504894736843</t>
+          <t>13.391855999999995</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12.547656000000002</t>
+          <t>12.826775999999997</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11.752596789473685</t>
+          <t>11.998106000000003</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10.42885796842105</t>
+          <t>10.673410999999994</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>11.906816947368425</t>
+          <t>12.157372000000004</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10.273686089473685</t>
+          <t>10.552820999999998</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11.88808405263158</t>
+          <t>12.216861999999997</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20.107341736842105</t>
+          <t>20.590633000000008</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21.29746363157895</t>
+          <t>21.65990799999999</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>19.875899000000004</t>
+          <t>20.24829499999999</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>17.934305947368422</t>
+          <t>18.312321</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>15.294016368421055</t>
+          <t>15.651411</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>13.12041136842105</t>
+          <t>13.427186000000004</t>
         </is>
       </c>
     </row>
@@ -2020,67 +2020,67 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7.023090343016757</t>
+          <t>6.373862032402239</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6.771839753072626</t>
+          <t>6.226396115083799</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.00951272011173</t>
+          <t>6.418572305586601</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8.397663554748602</t>
+          <t>7.4475148743016595</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11.339102931843586</t>
+          <t>9.877853346368703</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13.581742251396639</t>
+          <t>12.284483201117327</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>13.439771541899448</t>
+          <t>12.607049307262557</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.474161357608938</t>
+          <t>1.9466076625698354</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11.589289409497203</t>
+          <t>10.846423715083805</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11.69889100726257</t>
+          <t>10.422575631284884</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10.607354501675978</t>
+          <t>8.915627329050308</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8.705706557541903</t>
+          <t>7.393788853631278</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>7.046057637988825</t>
+          <t>6.3866999955307175</t>
         </is>
       </c>
     </row>
@@ -2092,67 +2092,67 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6.257221670967743</t>
+          <t>43.93279301290323</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.847371545161291</t>
+          <t>40.975740183870975</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.9104570806451604</t>
+          <t>34.02732650967742</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.3835944664516133</t>
+          <t>25.126856409677412</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-1.711153920096774</t>
+          <t>32.047161190322576</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-2.531898911612903</t>
+          <t>50.146406496774205</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-1.739255321548387</t>
+          <t>48.185401000000006</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-2.7191997212903223</t>
+          <t>-146.66714235129032</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>8.490270674193546</t>
+          <t>54.73663232258063</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>14.223317809677422</t>
+          <t>53.487324541935514</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>11.614938996774193</t>
+          <t>52.665859119354835</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11.055319212903223</t>
+          <t>49.975351477419366</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>6.333391609677421</t>
+          <t>43.93327505806452</t>
         </is>
       </c>
     </row>
@@ -2164,67 +2164,67 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7.7677362950000015</t>
+          <t>9.568231114999996</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7.239527357500002</t>
+          <t>9.304453640000002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7.8743589275</t>
+          <t>9.76535116</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11.1525270775</t>
+          <t>12.321958749999993</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>15.376927649999999</t>
+          <t>15.160466849999995</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16.30785515</t>
+          <t>16.922421850000006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>14.703875825000003</t>
+          <t>16.330222249999988</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>7.3875990225000026</t>
+          <t>8.246185519999997</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12.35760405</t>
+          <t>14.1459045</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>15.856580499999998</t>
+          <t>16.09334975000001</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>15.743429600000002</t>
+          <t>15.23995195000001</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11.58471923</t>
+          <t>12.065791849999997</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>7.8101410950000005</t>
+          <t>9.588531840000007</t>
         </is>
       </c>
     </row>
@@ -2236,67 +2236,67 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>13.472313846153847</t>
+          <t>11.24508</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12.875166384615385</t>
+          <t>10.646372999999999</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11.963422230769233</t>
+          <t>9.9322023</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9.343981484615385</t>
+          <t>7.9790816</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.659703007692307</t>
+          <t>5.706427599999999</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4.288685151538463</t>
+          <t>4.9166436</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4.185984447692308</t>
+          <t>4.891006500000001</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3.7646783869230775</t>
+          <t>4.056302099999998</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>6.611721723076924</t>
+          <t>6.738113900000001</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10.514160553846152</t>
+          <t>10.787950999999996</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>11.519844892307692</t>
+          <t>11.259232999999996</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13.060413538461539</t>
+          <t>11.470344</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>13.546225846153845</t>
+          <t>11.298046</t>
         </is>
       </c>
     </row>
@@ -2308,67 +2308,67 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.124441184210528</t>
+          <t>2.8408627999999987</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.259127810526317</t>
+          <t>3.0216122</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.507563715789474</t>
+          <t>3.3882143000000005</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.7732632894736837</t>
+          <t>2.987561200000001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.6318536942105262</t>
+          <t>1.0633881000000005</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.4009976575263157</t>
+          <t>0.8396228000000004</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.0532838194210525</t>
+          <t>0.7444910399999999</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.8059090000000002</t>
+          <t>2.3731141000000004</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2.1590879315789473</t>
+          <t>2.4892854842105265</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.9508171400000003</t>
+          <t>1.7774453</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.674271862105263</t>
+          <t>1.0929389</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3.062567015789473</t>
+          <t>1.9595121999999996</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>4.238683363157895</t>
+          <t>2.9356033999999993</t>
         </is>
       </c>
     </row>
@@ -2380,67 +2380,67 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6.327316910344827</t>
+          <t>8.079343224137935</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5.109489424137931</t>
+          <t>7.434444855172417</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.920282372413794</t>
+          <t>7.4800058413793105</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.758971306896552</t>
+          <t>8.80731359310345</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10.11802128275862</t>
+          <t>11.212480448275866</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12.03040805862069</t>
+          <t>13.322089413793107</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12.138637172413791</t>
+          <t>13.90433296551724</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5.883644296551724</t>
+          <t>7.270565920689655</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>17.509991517241378</t>
+          <t>18.362023482758627</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>25.99321696551724</t>
+          <t>25.03773620689655</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>24.63733210344828</t>
+          <t>24.667498965517247</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14.113581503448277</t>
+          <t>14.555957551724138</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>6.375248531034485</t>
+          <t>8.102233796551722</t>
         </is>
       </c>
     </row>
@@ -2452,67 +2452,67 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7.417685727118646</t>
+          <t>53.09862009152542</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5.826361777966102</t>
+          <t>50.38977245254236</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.806926894915254</t>
+          <t>43.910223335593194</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.1245336316949155</t>
+          <t>36.442871927118645</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-1.3558649182983045</t>
+          <t>40.26446613389829</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-2.1910373125423726</t>
+          <t>51.317718074576256</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-1.2365859746830508</t>
+          <t>48.19256266101696</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-2.657139825084745</t>
+          <t>-151.87113377779656</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10.558457844067796</t>
+          <t>55.59233255254236</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>17.237992050847456</t>
+          <t>57.88579326949153</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>14.010676542372881</t>
+          <t>58.828724796610146</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13.24540023898305</t>
+          <t>57.467655674576235</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>7.495863699999998</t>
+          <t>53.09883194576269</t>
         </is>
       </c>
     </row>
@@ -2524,67 +2524,67 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8.258473129694323</t>
+          <t>8.823980552838428</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8.04881678296943</t>
+          <t>8.52578143362445</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8.200253799563322</t>
+          <t>8.84258630873362</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.722154510480353</t>
+          <t>10.099968317030571</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9.313908927947594</t>
+          <t>12.20328313537118</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9.62645902489083</t>
+          <t>13.186837995633203</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8.918715910917035</t>
+          <t>12.766183379912665</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>7.031802636244543</t>
+          <t>9.054876979475972</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>6.673334824454142</t>
+          <t>9.730583542358083</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8.388359896943228</t>
+          <t>12.340267786026205</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>9.165610403493453</t>
+          <t>12.30821841048034</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>8.798200133624452</t>
+          <t>10.394532593886465</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>8.344254863318774</t>
+          <t>8.867764956768571</t>
         </is>
       </c>
     </row>
@@ -2596,67 +2596,67 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4.960832946153845</t>
+          <t>4.787114600000001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5.736088276923078</t>
+          <t>5.467771499999999</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.7738244307692295</t>
+          <t>7.4649452999999975</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9.22732556923077</t>
+          <t>9.180137599999998</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7.604477215384616</t>
+          <t>8.1268692</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>8.019250415384615</t>
+          <t>8.6333647</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5.998226100000001</t>
+          <t>6.875071000000001</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.2306875076923074</t>
+          <t>4.1028662</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.4930779261538463</t>
+          <t>2.5406705999999994</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.1839705090769231</t>
+          <t>1.8485385</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-0.002435890769230752</t>
+          <t>1.4766537</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2.5377832692307694</t>
+          <t>2.986783</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>5.071383730769231</t>
+          <t>4.8712721</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2668,67 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4.787308626086957</t>
+          <t>2.7504482000000006</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.897890382608696</t>
+          <t>2.8195057</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.945932843478261</t>
+          <t>2.8995310999999986</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.744429769565218</t>
+          <t>2.156976900000001</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.605807621739131</t>
+          <t>1.8249625999999994</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.510682834782608</t>
+          <t>1.928240099999999</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2.116765727391304</t>
+          <t>1.375740100000001</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.542200711652174</t>
+          <t>0.09563265000000001</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2.2810281873913048</t>
+          <t>1.1226366</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.9569871330434783</t>
+          <t>1.4998454999999995</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2.4027828521739134</t>
+          <t>1.6876972999999995</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>3.4762562652173914</t>
+          <t>2.088708599999999</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>4.845162782608695</t>
+          <t>2.7833761999999997</t>
         </is>
       </c>
     </row>
@@ -2740,67 +2740,67 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14.250883736842106</t>
+          <t>14.224685</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13.540320947368423</t>
+          <t>13.530784000000004</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12.288793473684212</t>
+          <t>12.302871000000003</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10.846123331578946</t>
+          <t>10.859428000000001</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>9.97187637368421</t>
+          <t>9.987110099999999</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10.915738910526315</t>
+          <t>10.908910999999996</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10.02977194736842</t>
+          <t>10.017900999999998</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>15.279106578947369</t>
+          <t>15.30553</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17.56709636842105</t>
+          <t>17.559107</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>17.210783842105265</t>
+          <t>17.191902000000002</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>16.386458210526317</t>
+          <t>16.364467999999995</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15.039927263157892</t>
+          <t>14.992888999999996</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>13.256251157894738</t>
+          <t>13.223524</t>
         </is>
       </c>
     </row>
@@ -2812,67 +2812,67 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>15.657489155279496</t>
+          <t>13.25045162111801</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15.63191311180124</t>
+          <t>12.981048608695657</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14.7241308447205</t>
+          <t>12.034912037267073</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>8.402515899378878</t>
+          <t>5.374453723602493</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.1479364767391307</t>
+          <t>-1.358904578385091</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.3081169865652177</t>
+          <t>-1.3571232996894371</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-0.4333656248260866</t>
+          <t>-2.190466138322981</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-1.2910755413956523</t>
+          <t>-3.483862206211182</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-0.4197206928509316</t>
+          <t>-1.7265872944099345</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.11745679039751522</t>
+          <t>-1.119580964596273</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>3.0743129942670797</t>
+          <t>1.8967609395652176</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>11.290994541614909</t>
+          <t>9.708426681366445</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>15.736716254658381</t>
+          <t>13.306514832298165</t>
         </is>
       </c>
     </row>
@@ -2884,67 +2884,67 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13.679547474860335</t>
+          <t>9.971947992737439</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13.65508537430167</t>
+          <t>9.707697248044674</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13.684465178770953</t>
+          <t>9.947892075977672</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13.657195709497211</t>
+          <t>11.220797603351935</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>14.495450223463678</t>
+          <t>13.744231608938515</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15.944239156424587</t>
+          <t>15.948559240223437</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>16.757510268156423</t>
+          <t>16.243145536312827</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>7.791936638547486</t>
+          <t>6.230019745810048</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>16.335362927374298</t>
+          <t>14.689082949720666</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>15.43042675977654</t>
+          <t>14.748691754189904</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>14.259508346368712</t>
+          <t>13.227843877094967</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13.73582075977654</t>
+          <t>11.346009603351972</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>13.679904307262571</t>
+          <t>9.991690337988853</t>
         </is>
       </c>
     </row>
@@ -2956,67 +2956,67 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8.971628619827582</t>
+          <t>7.435315100000016</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>8.09227269655172</t>
+          <t>6.672128199999984</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6.725220551724143</t>
+          <t>5.483108500000001</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.8358394698275875</t>
+          <t>4.650931399999993</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5.2941770405172415</t>
+          <t>4.093748100000012</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6.377768616379315</t>
+          <t>5.168325399999997</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>5.383761148275864</t>
+          <t>4.18300249999999</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>9.060822518103445</t>
+          <t>7.521196799999991</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>12.036982948275861</t>
+          <t>10.960422000000017</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>12.167891456896555</t>
+          <t>11.047168000000033</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>11.559429856896545</t>
+          <t>10.299472000000002</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10.243775836206893</t>
+          <t>8.866413100000019</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>8.056387730172412</t>
+          <t>6.532366799999987</t>
         </is>
       </c>
     </row>
@@ -3028,67 +3028,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6.574831675200002</t>
+          <t>6.9704703928000065</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6.315353221600001</t>
+          <t>6.89870971199999</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7.058133002400001</t>
+          <t>7.664497841599992</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8.123972741600003</t>
+          <t>8.310992514399986</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>9.906567423999999</t>
+          <t>9.556449893599998</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10.243934520000007</t>
+          <t>10.081656531999995</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>8.875535690399996</t>
+          <t>9.275919922400009</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>5.077278571200002</t>
+          <t>4.9970375183999955</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>7.611702571999997</t>
+          <t>8.437326025599994</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>9.8745863824</t>
+          <t>10.089513019999986</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>9.701980426399997</t>
+          <t>9.1790270504</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>8.1158352736</t>
+          <t>7.921834136000002</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>6.643387304000001</t>
+          <t>7.016002364799993</t>
         </is>
       </c>
     </row>
@@ -3100,67 +3100,67 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6.839780738461538</t>
+          <t>6.121318799999998</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7.565750653846154</t>
+          <t>6.753248200000001</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9.438593253846154</t>
+          <t>8.601458500000003</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10.264376315384615</t>
+          <t>9.757005700000004</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>9.195711584615385</t>
+          <t>9.442575500000002</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>9.723005792307692</t>
+          <t>9.955771400000001</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>7.715004115384614</t>
+          <t>8.0388832</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>4.5912173923076915</t>
+          <t>4.706533899999998</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2.9540456923076923</t>
+          <t>3.335879599999999</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.7062521788461533</t>
+          <t>2.8209088000000007</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1.8857230769230768</t>
+          <t>2.792645700000001</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4.419788292307692</t>
+          <t>4.4186478000000005</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>6.920114553846154</t>
+          <t>6.177699599999999</t>
         </is>
       </c>
     </row>
@@ -3172,67 +3172,67 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7.985340178787879</t>
+          <t>10.935540000000001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7.243326345454546</t>
+          <t>10.567113000000004</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8.014068066666665</t>
+          <t>11.044743999999996</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11.716129393939394</t>
+          <t>13.40065399999999</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>16.682522000000006</t>
+          <t>16.356500999999994</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17.172802090909094</t>
+          <t>17.636128999999993</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14.956303696969696</t>
+          <t>17.154331000000006</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>8.882143848484848</t>
+          <t>9.692378</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>12.226424484848485</t>
+          <t>15.208552999999997</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>17.197245636363633</t>
+          <t>17.647402</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>17.500962696969697</t>
+          <t>16.708577999999992</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>12.656978175757578</t>
+          <t>13.520381999999996</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>8.041457003030304</t>
+          <t>10.959961000000002</t>
         </is>
       </c>
     </row>
@@ -3244,67 +3244,67 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12.195314454545455</t>
+          <t>12.622624654545461</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11.551481636363638</t>
+          <t>12.266418745454535</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12.045794127272723</t>
+          <t>12.735496254545458</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15.919005800000003</t>
+          <t>15.484092018181816</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>20.115303163636362</t>
+          <t>18.218643036363627</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20.941724036363635</t>
+          <t>19.35122487272727</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>19.140764036363635</t>
+          <t>18.728932072727275</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12.63938592727273</t>
+          <t>11.63447347272727</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>16.359377145454545</t>
+          <t>16.698967090909093</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>20.419108490909093</t>
+          <t>19.24872614545455</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>20.745237109090912</t>
+          <t>18.498447581818187</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16.480515072727265</t>
+          <t>15.28937000000001</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>12.239610218181813</t>
+          <t>12.645203327272728</t>
         </is>
       </c>
     </row>
@@ -3316,67 +3316,67 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6.136025044827585</t>
+          <t>7.775679631034487</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.871532751724137</t>
+          <t>7.113096831034485</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.6582345931034475</t>
+          <t>7.145099765517243</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6.474802106896553</t>
+          <t>8.461150655172416</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>9.83194541724138</t>
+          <t>10.858427896551722</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11.784323989655169</t>
+          <t>12.999150275862062</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11.967919510344828</t>
+          <t>13.61827113793104</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.698901755172414</t>
+          <t>7.054796044827584</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>17.985400482758617</t>
+          <t>18.706376793103452</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>26.911834827586212</t>
+          <t>25.853006655172404</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>25.344017413793104</t>
+          <t>25.52540013793103</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>14.259810748275864</t>
+          <t>14.615889724137926</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>6.184265086206895</t>
+          <t>7.798415886206896</t>
         </is>
       </c>
     </row>
@@ -3388,67 +3388,67 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.774752079999999</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.63346462</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>10.355965199999998</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.15608</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>17.901627499999996</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>18.346773900000002</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>17.116586199999997</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.2895994</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>12.956518800000001</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.7325108</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.762023200000002</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.850353999999998</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.79778824</t>
         </is>
       </c>
     </row>
@@ -3460,67 +3460,67 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4.818071893103448</t>
+          <t>7.446474572413794</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5.397849779310346</t>
+          <t>7.446137941379311</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8.917185331034483</t>
+          <t>10.010552393103445</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17.77843303448276</t>
+          <t>22.867557068965514</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>26.64429575862069</t>
+          <t>25.76954079310344</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23.83063710344828</t>
+          <t>23.222244448275855</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16.770465689655175</t>
+          <t>17.488423724137938</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5.965856358620689</t>
+          <t>7.335913244827588</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>8.007967251724136</t>
+          <t>10.749220703448273</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>10.058878555172411</t>
+          <t>12.235642275862064</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>10.107939244827586</t>
+          <t>11.307593103448273</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7.658280944827585</t>
+          <t>9.257876448275868</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>4.868287903448276</t>
+          <t>7.469789820689656</t>
         </is>
       </c>
     </row>
@@ -3532,67 +3532,67 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7.946651463636363</t>
+          <t>10.913549999999992</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7.2390687636363635</t>
+          <t>10.56240400000001</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8.079740169696969</t>
+          <t>11.078981</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11.919180772727273</t>
+          <t>13.537810999999992</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>17.004811878787873</t>
+          <t>16.551416000000007</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17.407552939393934</t>
+          <t>17.775261</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>15.049566696969698</t>
+          <t>17.210827</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>8.885292224242423</t>
+          <t>9.6919928</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>12.03928708181818</t>
+          <t>15.080594000000007</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>16.85726057575758</t>
+          <t>17.44150000000001</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>17.1832543939394</t>
+          <t>16.509254</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>12.509296733333333</t>
+          <t>13.431796000000006</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>8.002805118181817</t>
+          <t>10.937974999999996</t>
         </is>
       </c>
     </row>
@@ -3604,67 +3604,67 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12.230931327272726</t>
+          <t>12.65637603636363</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11.578350745454548</t>
+          <t>12.296361490909092</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12.065636636363639</t>
+          <t>12.756771636363636</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15.957954472727275</t>
+          <t>15.531919763636367</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>20.18088729090909</t>
+          <t>18.273652090909092</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21.006772236363638</t>
+          <t>19.40721981818182</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>19.195309272727275</t>
+          <t>18.782806254545456</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>12.736670309090906</t>
+          <t>11.709377945454547</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>16.352435090909093</t>
+          <t>16.70152232727272</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20.443417818181814</t>
+          <t>19.254706327272732</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>20.795462818181814</t>
+          <t>18.50761559999999</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>16.537523218181825</t>
+          <t>15.312397436363645</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>12.275447563636364</t>
+          <t>12.679052018181812</t>
         </is>
       </c>
     </row>
@@ -3676,67 +3676,67 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-6.251650216245672</t>
+          <t>-15.777994716791175</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-5.995944914809318</t>
+          <t>-15.230609675036865</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-5.657682088509178</t>
+          <t>-14.198908552253421</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-6.45642204422982</t>
+          <t>-13.472455649429836</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-8.178164003070814</t>
+          <t>-14.30791644551794</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-8.009981203021297</t>
+          <t>-14.686259635165975</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-7.559651055324426</t>
+          <t>-14.978347327786402</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-4.810437937738981</t>
+          <t>-14.33041197053034</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-4.633275607459139</t>
+          <t>-11.721431479395719</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>-6.686677415849426</t>
+          <t>-13.042741582268516</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>-7.939826765329375</t>
+          <t>-14.934203845071593</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-7.2214084109955445</t>
+          <t>-15.657123724468</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>-6.104175979148086</t>
+          <t>-15.6884979085681</t>
         </is>
       </c>
     </row>
@@ -3748,67 +3748,67 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3.904643813043478</t>
+          <t>2.6458182000000003</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.063382821739131</t>
+          <t>2.8405685000000016</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.3543636999999995</t>
+          <t>3.2350166000000002</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.662487713043477</t>
+          <t>2.838836</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.5404717004347825</t>
+          <t>1.0056121000000002</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.3236307043913045</t>
+          <t>1.4895232321739127</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.940720783347826</t>
+          <t>0.6839564399999997</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.6265894621739132</t>
+          <t>1.8329748000000001</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1.9547867195652173</t>
+          <t>2.0119864999999995</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1.664558660869565</t>
+          <t>1.6364683999999992</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.3782186165217392</t>
+          <t>0.9142461399999998</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2.791507113043478</t>
+          <t>1.6954315999999994</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>4.018657152173913</t>
+          <t>2.7400068999999987</t>
         </is>
       </c>
     </row>
@@ -3820,67 +3820,67 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6.3500864626506015</t>
+          <t>7.259873804819277</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>6.115409042168673</t>
+          <t>7.206187134939758</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6.83129588192771</t>
+          <t>7.89225228313253</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.7306453192771105</t>
+          <t>8.389719407228922</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>9.215435253012046</t>
+          <t>9.231596496385544</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>9.518948439759036</t>
+          <t>9.687204951807233</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>8.218742639759036</t>
+          <t>8.971420287951807</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4.814434354216868</t>
+          <t>5.36351868795181</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>7.1045056963855435</t>
+          <t>8.177023032530123</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>9.169034255421687</t>
+          <t>9.730415619277121</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>9.011720950602411</t>
+          <t>8.969458638554228</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>7.679774906024096</t>
+          <t>8.015688644578312</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>6.4209696180722915</t>
+          <t>7.3087282253012065</t>
         </is>
       </c>
     </row>
